--- a/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
+++ b/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6443D93-7E36-4A3D-B4E9-F5EFB266CCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5857BE8-94BB-41BA-BBDC-BBF93BC37864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
+    <workbookView xWindow="3255" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="story1" sheetId="2" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
+++ b/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE8F30B-89F2-4A60-A7BC-85587D5FE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C000B9-C444-46CE-84CB-D9BEB007CE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
@@ -1151,9 +1151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFCA023-BD26-4C4D-A72F-F8BB63D3B95D}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2572,6 +2572,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="4" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="4" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
+++ b/contents/Luna/잔월_시나리오_대화창 - 복사본.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E535238-DBAB-4965-B8F9-5905B2BD4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10FADF-24D6-4A53-8AF4-4E293041561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="159">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,10 @@
   </si>
   <si>
     <t>아랑: "… 이 소식 서둘러 전달해야해"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +756,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,9 +1080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFCA023-BD26-4C4D-A72F-F8BB63D3B95D}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G40:G53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,25 +1098,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>80</v>
       </c>
     </row>
